--- a/biology/Médecine/Cricothyroïdotomie/Cricothyroïdotomie.xlsx
+++ b/biology/Médecine/Cricothyroïdotomie/Cricothyroïdotomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cricothyro%C3%AFdotomie</t>
+          <t>Cricothyroïdotomie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cricothyroïdotomie, ou coniotomie, est une technique chirurgicale utilisée en sauvetage, donnant un accès rapide à la trachée et permettant ainsi d'assurer une ventilation efficace. C'est une technique alternative à la laryngoscopie directe dans le contexte de l'intubation difficile ou impossible en urgence.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cricothyro%C3%AFdotomie</t>
+          <t>Cricothyroïdotomie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,9 +528,11 @@
           <t>En médecine de l'avant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine de l'avant, la cricothyroïdotomie est une technique de choix pour maintenir les voies aériennes ouvertes de manière « définitive »[1]. En effet, il n'est en général pas possible d'effectuer une anesthésie générale, il n'est donc pas possible de faire une intubation orotrachéale si le blessé n'est pas dans un coma profond. Par ailleurs, lors de l'évacuation sanitaire, la sonde d'intubation risque de bouger, dans un contexte où la surveillance et la réintubation sont compliqués.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine de l'avant, la cricothyroïdotomie est une technique de choix pour maintenir les voies aériennes ouvertes de manière « définitive ». En effet, il n'est en général pas possible d'effectuer une anesthésie générale, il n'est donc pas possible de faire une intubation orotrachéale si le blessé n'est pas dans un coma profond. Par ailleurs, lors de l'évacuation sanitaire, la sonde d'intubation risque de bouger, dans un contexte où la surveillance et la réintubation sont compliqués.
 </t>
         </is>
       </c>
